--- a/Backend/Data/ProductData/productData.xlsx
+++ b/Backend/Data/ProductData/productData.xlsx
@@ -444,6 +444,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/Backend/Data/ProductData/productData.xlsx
+++ b/Backend/Data/ProductData/productData.xlsx
@@ -28,13 +28,13 @@
     <t>Nitesh</t>
   </si>
   <si>
-    <t>milk</t>
+    <t>petrol</t>
   </si>
   <si>
     <t>2025-01-07</t>
   </si>
   <si>
-    <t>55</t>
+    <t>120</t>
   </si>
 </sst>
 </file>
